--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Lrp5</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Lrp5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H2">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I2">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J2">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N2">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O2">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P2">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q2">
-        <v>1.225275322422</v>
+        <v>41.687024141945</v>
       </c>
       <c r="R2">
-        <v>11.027477901798</v>
+        <v>375.183217277505</v>
       </c>
       <c r="S2">
-        <v>0.006637882251814649</v>
+        <v>0.2458227589764405</v>
       </c>
       <c r="T2">
-        <v>0.006964959207021859</v>
+        <v>0.2553534824609235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H3">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I3">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J3">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.253893</v>
       </c>
       <c r="O3">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P3">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q3">
-        <v>0.7363864787073333</v>
+        <v>41.011683203881</v>
       </c>
       <c r="R3">
-        <v>6.627478308365999</v>
+        <v>369.105148834929</v>
       </c>
       <c r="S3">
-        <v>0.003989345617298076</v>
+        <v>0.241840364548876</v>
       </c>
       <c r="T3">
-        <v>0.004185917802262396</v>
+        <v>0.2512166877644283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H4">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I4">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J4">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N4">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O4">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P4">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q4">
-        <v>0.4327475126535555</v>
+        <v>29.735265895049</v>
       </c>
       <c r="R4">
-        <v>3.894727613882</v>
+        <v>267.617393055441</v>
       </c>
       <c r="S4">
-        <v>0.002344393118178412</v>
+        <v>0.1753448525452351</v>
       </c>
       <c r="T4">
-        <v>0.002459911431672585</v>
+        <v>0.1821430973904012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H5">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I5">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J5">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N5">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O5">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P5">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q5">
-        <v>0.4315701761046666</v>
+        <v>18.6610088118025</v>
       </c>
       <c r="R5">
-        <v>2.589421056628</v>
+        <v>111.966052870815</v>
       </c>
       <c r="S5">
-        <v>0.002338014942400878</v>
+        <v>0.110041452126233</v>
       </c>
       <c r="T5">
-        <v>0.001635479317195174</v>
+        <v>0.07620522507758966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07302066666666666</v>
+        <v>4.066751</v>
       </c>
       <c r="H6">
-        <v>0.219062</v>
+        <v>12.200253</v>
       </c>
       <c r="I6">
-        <v>0.01750387133581461</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="J6">
-        <v>0.0175486225626635</v>
+        <v>0.9827679245700983</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N6">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O6">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P6">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q6">
-        <v>0.4050301576186666</v>
+        <v>35.564404442164</v>
       </c>
       <c r="R6">
-        <v>3.645271418567999</v>
+        <v>320.079639979476</v>
       </c>
       <c r="S6">
-        <v>0.0021942354061226</v>
+        <v>0.2097184963733137</v>
       </c>
       <c r="T6">
-        <v>0.002302354804511482</v>
+        <v>0.2178494318767557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H7">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I7">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J7">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.779843</v>
+        <v>10.250695</v>
       </c>
       <c r="N7">
-        <v>50.33952900000001</v>
+        <v>30.752085</v>
       </c>
       <c r="O7">
-        <v>0.3792236656946227</v>
+        <v>0.2501330709220828</v>
       </c>
       <c r="P7">
-        <v>0.3968949233565789</v>
+        <v>0.259830908271274</v>
       </c>
       <c r="Q7">
-        <v>68.23944330009301</v>
+        <v>0.7309497252633332</v>
       </c>
       <c r="R7">
-        <v>614.1549897008371</v>
+        <v>6.57854752737</v>
       </c>
       <c r="S7">
-        <v>0.3696845772263032</v>
+        <v>0.004310311945642283</v>
       </c>
       <c r="T7">
-        <v>0.3879005234150426</v>
+        <v>0.004477425810350464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H8">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I8">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J8">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>30.253893</v>
       </c>
       <c r="O8">
-        <v>0.2279121881532281</v>
+        <v>0.2460808482884365</v>
       </c>
       <c r="P8">
-        <v>0.2385325564622017</v>
+        <v>0.2556215780794031</v>
       </c>
       <c r="Q8">
-        <v>41.011683203881</v>
+        <v>0.7191081442606667</v>
       </c>
       <c r="R8">
-        <v>369.105148834929</v>
+        <v>6.471973298346001</v>
       </c>
       <c r="S8">
-        <v>0.2221792270474921</v>
+        <v>0.004240483739560536</v>
       </c>
       <c r="T8">
-        <v>0.2331269513873023</v>
+        <v>0.004404890314974781</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H9">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I9">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J9">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.926370333333334</v>
+        <v>7.311799000000001</v>
       </c>
       <c r="N9">
-        <v>17.779111</v>
+        <v>21.935397</v>
       </c>
       <c r="O9">
-        <v>0.1339356918935731</v>
+        <v>0.1784193889131434</v>
       </c>
       <c r="P9">
-        <v>0.1401768955306099</v>
+        <v>0.1853368357235283</v>
       </c>
       <c r="Q9">
-        <v>24.10107247945367</v>
+        <v>0.5213848885593334</v>
       </c>
       <c r="R9">
-        <v>216.909652315083</v>
+        <v>4.692463997034</v>
       </c>
       <c r="S9">
-        <v>0.1305666394593107</v>
+        <v>0.003074536367908254</v>
       </c>
       <c r="T9">
-        <v>0.1370002183126136</v>
+        <v>0.003193738333127141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H10">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I10">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J10">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.910247</v>
+        <v>4.588677499999999</v>
       </c>
       <c r="N10">
-        <v>11.820494</v>
+        <v>9.177354999999999</v>
       </c>
       <c r="O10">
-        <v>0.1335713053155888</v>
+        <v>0.1119709438770801</v>
       </c>
       <c r="P10">
-        <v>0.09319701938742614</v>
+        <v>0.07754142475796089</v>
       </c>
       <c r="Q10">
-        <v>24.035502897497</v>
+        <v>0.3272063560516666</v>
       </c>
       <c r="R10">
-        <v>144.213017384982</v>
+        <v>1.96323813631</v>
       </c>
       <c r="S10">
-        <v>0.1302114187539196</v>
+        <v>0.001929491750847134</v>
       </c>
       <c r="T10">
-        <v>0.09108499623872862</v>
+        <v>0.00133619968037123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>4.066751</v>
+        <v>0.07130733333333333</v>
       </c>
       <c r="H11">
-        <v>12.200253</v>
+        <v>0.213922</v>
       </c>
       <c r="I11">
-        <v>0.9748457458454056</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="J11">
-        <v>0.9773380826706732</v>
+        <v>0.0172320754299017</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.546787999999999</v>
+        <v>8.745164000000001</v>
       </c>
       <c r="N11">
-        <v>16.640364</v>
+        <v>26.235492</v>
       </c>
       <c r="O11">
-        <v>0.1253571489429874</v>
+        <v>0.2133957479992572</v>
       </c>
       <c r="P11">
-        <v>0.1311986052631834</v>
+        <v>0.2216692531678338</v>
       </c>
       <c r="Q11">
-        <v>22.557405645788</v>
+        <v>0.6235943244026667</v>
       </c>
       <c r="R11">
-        <v>203.016650812092</v>
+        <v>5.612348919624</v>
       </c>
       <c r="S11">
-        <v>0.1222038833583801</v>
+        <v>0.003677251625943495</v>
       </c>
       <c r="T11">
-        <v>0.1282253933169862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.031915</v>
-      </c>
-      <c r="H12">
-        <v>0.06383</v>
-      </c>
-      <c r="I12">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J12">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>16.779843</v>
-      </c>
-      <c r="N12">
-        <v>50.33952900000001</v>
-      </c>
-      <c r="O12">
-        <v>0.3792236656946227</v>
-      </c>
-      <c r="P12">
-        <v>0.3968949233565789</v>
-      </c>
-      <c r="Q12">
-        <v>0.5355286893450001</v>
-      </c>
-      <c r="R12">
-        <v>3.21317213607</v>
-      </c>
-      <c r="S12">
-        <v>0.002901206216504887</v>
-      </c>
-      <c r="T12">
-        <v>0.002029440734514454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.031915</v>
-      </c>
-      <c r="H13">
-        <v>0.06383</v>
-      </c>
-      <c r="I13">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J13">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>10.084631</v>
-      </c>
-      <c r="N13">
-        <v>30.253893</v>
-      </c>
-      <c r="O13">
-        <v>0.2279121881532281</v>
-      </c>
-      <c r="P13">
-        <v>0.2385325564622017</v>
-      </c>
-      <c r="Q13">
-        <v>0.321850998365</v>
-      </c>
-      <c r="R13">
-        <v>1.93110599019</v>
-      </c>
-      <c r="S13">
-        <v>0.001743615488437996</v>
-      </c>
-      <c r="T13">
-        <v>0.00121968727263701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.031915</v>
-      </c>
-      <c r="H14">
-        <v>0.06383</v>
-      </c>
-      <c r="I14">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J14">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>5.926370333333334</v>
-      </c>
-      <c r="N14">
-        <v>17.779111</v>
-      </c>
-      <c r="O14">
-        <v>0.1339356918935731</v>
-      </c>
-      <c r="P14">
-        <v>0.1401768955306099</v>
-      </c>
-      <c r="Q14">
-        <v>0.1891401091883333</v>
-      </c>
-      <c r="R14">
-        <v>1.13484065513</v>
-      </c>
-      <c r="S14">
-        <v>0.001024659316083995</v>
-      </c>
-      <c r="T14">
-        <v>0.0007167657863237854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.031915</v>
-      </c>
-      <c r="H15">
-        <v>0.06383</v>
-      </c>
-      <c r="I15">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J15">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5.910247</v>
-      </c>
-      <c r="N15">
-        <v>11.820494</v>
-      </c>
-      <c r="O15">
-        <v>0.1335713053155888</v>
-      </c>
-      <c r="P15">
-        <v>0.09319701938742614</v>
-      </c>
-      <c r="Q15">
-        <v>0.188625533005</v>
-      </c>
-      <c r="R15">
-        <v>0.7545021320199999</v>
-      </c>
-      <c r="S15">
-        <v>0.00102187161926839</v>
-      </c>
-      <c r="T15">
-        <v>0.0004765438315023506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.031915</v>
-      </c>
-      <c r="H16">
-        <v>0.06383</v>
-      </c>
-      <c r="I16">
-        <v>0.007650382818779934</v>
-      </c>
-      <c r="J16">
-        <v>0.005113294766663369</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.546787999999999</v>
-      </c>
-      <c r="N16">
-        <v>16.640364</v>
-      </c>
-      <c r="O16">
-        <v>0.1253571489429874</v>
-      </c>
-      <c r="P16">
-        <v>0.1311986052631834</v>
-      </c>
-      <c r="Q16">
-        <v>0.17702573902</v>
-      </c>
-      <c r="R16">
-        <v>1.06215443412</v>
-      </c>
-      <c r="S16">
-        <v>0.0009590301784846678</v>
-      </c>
-      <c r="T16">
-        <v>0.0006708571416857688</v>
+        <v>0.003819821291078089</v>
       </c>
     </row>
   </sheetData>
